--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H2">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I2">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J2">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>17.0126460783493</v>
+        <v>0.509196</v>
       </c>
       <c r="N2">
-        <v>17.0126460783493</v>
+        <v>1.527588</v>
       </c>
       <c r="O2">
-        <v>0.908650281253049</v>
+        <v>0.02558190413389134</v>
       </c>
       <c r="P2">
-        <v>0.908650281253049</v>
+        <v>0.02558190413389134</v>
       </c>
       <c r="Q2">
-        <v>31.91925723039281</v>
+        <v>1.29416661298</v>
       </c>
       <c r="R2">
-        <v>31.91925723039281</v>
+        <v>11.64749951682</v>
       </c>
       <c r="S2">
-        <v>0.03266790177578154</v>
+        <v>0.001067720968865493</v>
       </c>
       <c r="T2">
-        <v>0.03266790177578154</v>
+        <v>0.001067720968865493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H3">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I3">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J3">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.7103394633362</v>
+        <v>17.676258</v>
       </c>
       <c r="N3">
-        <v>1.7103394633362</v>
+        <v>53.028774</v>
       </c>
       <c r="O3">
-        <v>0.09134971874695097</v>
+        <v>0.8880516296316739</v>
       </c>
       <c r="P3">
-        <v>0.09134971874695097</v>
+        <v>0.8880516296316739</v>
       </c>
       <c r="Q3">
-        <v>3.208952036626225</v>
+        <v>44.92577110979</v>
       </c>
       <c r="R3">
-        <v>3.208952036626225</v>
+        <v>404.33193998811</v>
       </c>
       <c r="S3">
-        <v>0.00328421583181087</v>
+        <v>0.03706492454315513</v>
       </c>
       <c r="T3">
-        <v>0.00328421583181087</v>
+        <v>0.03706492454315513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.7140310127191</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H4">
-        <v>22.7140310127191</v>
+        <v>7.624765</v>
       </c>
       <c r="I4">
-        <v>0.4352489988125159</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J4">
-        <v>0.4352489988125159</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.0126460783493</v>
+        <v>1.719084666666667</v>
       </c>
       <c r="N4">
-        <v>17.0126460783493</v>
+        <v>5.157254</v>
       </c>
       <c r="O4">
-        <v>0.908650281253049</v>
+        <v>0.0863664662344347</v>
       </c>
       <c r="P4">
-        <v>0.908650281253049</v>
+        <v>0.0863664662344347</v>
       </c>
       <c r="Q4">
-        <v>386.42577063204</v>
+        <v>4.369205532812222</v>
       </c>
       <c r="R4">
-        <v>386.42577063204</v>
+        <v>39.32284979531</v>
       </c>
       <c r="S4">
-        <v>0.3954891251861006</v>
+        <v>0.003604707707552978</v>
       </c>
       <c r="T4">
-        <v>0.3954891251861006</v>
+        <v>0.003604707707552978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.7140310127191</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H5">
-        <v>22.7140310127191</v>
+        <v>68.753095</v>
       </c>
       <c r="I5">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="J5">
-        <v>0.4352489988125159</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.7103394633362</v>
+        <v>0.509196</v>
       </c>
       <c r="N5">
-        <v>1.7103394633362</v>
+        <v>1.527588</v>
       </c>
       <c r="O5">
-        <v>0.09134971874695097</v>
+        <v>0.02558190413389134</v>
       </c>
       <c r="P5">
-        <v>0.09134971874695097</v>
+        <v>0.02558190413389134</v>
       </c>
       <c r="Q5">
-        <v>38.84870361249579</v>
+        <v>11.66960032054</v>
       </c>
       <c r="R5">
-        <v>38.84870361249579</v>
+        <v>105.02640288486</v>
       </c>
       <c r="S5">
-        <v>0.03975987362641533</v>
+        <v>0.009627722455170917</v>
       </c>
       <c r="T5">
-        <v>0.03975987362641533</v>
+        <v>0.009627722455170917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.5960525443936</v>
+        <v>22.91769833333333</v>
       </c>
       <c r="H6">
-        <v>27.5960525443936</v>
+        <v>68.753095</v>
       </c>
       <c r="I6">
-        <v>0.5287988835798917</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="J6">
-        <v>0.5287988835798917</v>
+        <v>0.376348938092374</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.0126460783493</v>
+        <v>17.676258</v>
       </c>
       <c r="N6">
-        <v>17.0126460783493</v>
+        <v>53.028774</v>
       </c>
       <c r="O6">
-        <v>0.908650281253049</v>
+        <v>0.8880516296316739</v>
       </c>
       <c r="P6">
-        <v>0.908650281253049</v>
+        <v>0.8880516296316739</v>
       </c>
       <c r="Q6">
-        <v>469.481875097299</v>
+        <v>405.09914850617</v>
       </c>
       <c r="R6">
-        <v>469.481875097299</v>
+        <v>3645.89233655553</v>
       </c>
       <c r="S6">
-        <v>0.4804932542911669</v>
+        <v>0.3342172877830827</v>
       </c>
       <c r="T6">
-        <v>0.4804932542911669</v>
+        <v>0.3342172877830827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>22.91769833333333</v>
+      </c>
+      <c r="H7">
+        <v>68.753095</v>
+      </c>
+      <c r="I7">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="J7">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.719084666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.157254</v>
+      </c>
+      <c r="O7">
+        <v>0.0863664662344347</v>
+      </c>
+      <c r="P7">
+        <v>0.0863664662344347</v>
+      </c>
+      <c r="Q7">
+        <v>39.39746380012556</v>
+      </c>
+      <c r="R7">
+        <v>354.57717420113</v>
+      </c>
+      <c r="S7">
+        <v>0.03250392785412037</v>
+      </c>
+      <c r="T7">
+        <v>0.03250392785412037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.120233</v>
+      </c>
+      <c r="I8">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J8">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.509196</v>
+      </c>
+      <c r="N8">
+        <v>1.527588</v>
+      </c>
+      <c r="O8">
+        <v>0.02558190413389134</v>
+      </c>
+      <c r="P8">
+        <v>0.02558190413389134</v>
+      </c>
+      <c r="Q8">
+        <v>0.020407387556</v>
+      </c>
+      <c r="R8">
+        <v>0.183666488004</v>
+      </c>
+      <c r="S8">
+        <v>1.683662319423678E-05</v>
+      </c>
+      <c r="T8">
+        <v>1.683662319423678E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.120233</v>
+      </c>
+      <c r="I9">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J9">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.676258</v>
+      </c>
+      <c r="N9">
+        <v>53.028774</v>
+      </c>
+      <c r="O9">
+        <v>0.8880516296316739</v>
+      </c>
+      <c r="P9">
+        <v>0.8880516296316739</v>
+      </c>
+      <c r="Q9">
+        <v>0.7084231760380001</v>
+      </c>
+      <c r="R9">
+        <v>6.375808584342</v>
+      </c>
+      <c r="S9">
+        <v>0.0005844674652395412</v>
+      </c>
+      <c r="T9">
+        <v>0.0005844674652395412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.120233</v>
+      </c>
+      <c r="I10">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J10">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.719084666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.157254</v>
+      </c>
+      <c r="O10">
+        <v>0.0863664662344347</v>
+      </c>
+      <c r="P10">
+        <v>0.0863664662344347</v>
+      </c>
+      <c r="Q10">
+        <v>0.06889690224244445</v>
+      </c>
+      <c r="R10">
+        <v>0.6200721201820001</v>
+      </c>
+      <c r="S10">
+        <v>5.684172847323388E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.684172847323388E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>27.5960525443936</v>
-      </c>
-      <c r="H7">
-        <v>27.5960525443936</v>
-      </c>
-      <c r="I7">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="J7">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.7103394633362</v>
-      </c>
-      <c r="N7">
-        <v>1.7103394633362</v>
-      </c>
-      <c r="O7">
-        <v>0.09134971874695097</v>
-      </c>
-      <c r="P7">
-        <v>0.09134971874695097</v>
-      </c>
-      <c r="Q7">
-        <v>47.19861769897572</v>
-      </c>
-      <c r="R7">
-        <v>47.19861769897572</v>
-      </c>
-      <c r="S7">
-        <v>0.04830562928872478</v>
-      </c>
-      <c r="T7">
-        <v>0.04830562928872478</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.395449</v>
+      </c>
+      <c r="H11">
+        <v>106.186347</v>
+      </c>
+      <c r="I11">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J11">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.509196</v>
+      </c>
+      <c r="N11">
+        <v>1.527588</v>
+      </c>
+      <c r="O11">
+        <v>0.02558190413389134</v>
+      </c>
+      <c r="P11">
+        <v>0.02558190413389134</v>
+      </c>
+      <c r="Q11">
+        <v>18.023221049004</v>
+      </c>
+      <c r="R11">
+        <v>162.208989441036</v>
+      </c>
+      <c r="S11">
+        <v>0.01486962408666069</v>
+      </c>
+      <c r="T11">
+        <v>0.01486962408666069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.395449</v>
+      </c>
+      <c r="H12">
+        <v>106.186347</v>
+      </c>
+      <c r="I12">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J12">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.676258</v>
+      </c>
+      <c r="N12">
+        <v>53.028774</v>
+      </c>
+      <c r="O12">
+        <v>0.8880516296316739</v>
+      </c>
+      <c r="P12">
+        <v>0.8880516296316739</v>
+      </c>
+      <c r="Q12">
+        <v>625.6590885498421</v>
+      </c>
+      <c r="R12">
+        <v>5630.931796948577</v>
+      </c>
+      <c r="S12">
+        <v>0.5161849498401966</v>
+      </c>
+      <c r="T12">
+        <v>0.5161849498401966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.395449</v>
+      </c>
+      <c r="H13">
+        <v>106.186347</v>
+      </c>
+      <c r="I13">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J13">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.719084666666667</v>
+      </c>
+      <c r="N13">
+        <v>5.157254</v>
+      </c>
+      <c r="O13">
+        <v>0.0863664662344347</v>
+      </c>
+      <c r="P13">
+        <v>0.0863664662344347</v>
+      </c>
+      <c r="Q13">
+        <v>60.847773645682</v>
+      </c>
+      <c r="R13">
+        <v>547.6299628111379</v>
+      </c>
+      <c r="S13">
+        <v>0.05020098894428811</v>
+      </c>
+      <c r="T13">
+        <v>0.05020098894428811</v>
       </c>
     </row>
   </sheetData>
